--- a/VENTA DIARIAS.xlsx
+++ b/VENTA DIARIAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHRISCHAV-PC\Desktop\Maverick\Cevallos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Peleteria Valamy\Cevallos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0535FEA8-9781-4E6E-9F0E-7E0786B2714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694B5A50-E040-4081-9EA8-3239E8494393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{884F0C85-E8A2-45E5-AEE1-E08674D48F66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{884F0C85-E8A2-45E5-AEE1-E08674D48F66}"/>
   </bookViews>
   <sheets>
     <sheet name="VENTAS DIARIAS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -478,10 +477,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3B8465-4C17-46DA-BC64-860C671AEE2E}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A2:O32"/>
+  <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +490,7 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -507,125 +506,137 @@
       <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>11.6</v>
+      </c>
       <c r="G2" s="9">
         <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>34.799999999999997</v>
+        <v>5.6</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>2.2000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D20" si="0">B3*C3</f>
-        <v>13.200000000000001</v>
+        <v>2.86</v>
       </c>
       <c r="E3" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>9</v>
+      </c>
       <c r="G3" s="9">
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>39.199999999999996</v>
+        <v>8.1000000000000014</v>
       </c>
       <c r="E4" s="9">
         <v>3</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>4.8</v>
+      </c>
       <c r="G4" s="9">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
-        <v>16.8</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.1</v>
+      </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E5" s="9">
         <v>4</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>5.5</v>
+      </c>
       <c r="G5" s="9">
         <v>4</v>
       </c>
-      <c r="H5" s="3">
-        <v>12.6</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.11</v>
+      </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="E6" s="9">
         <v>5</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>4.8</v>
+      </c>
       <c r="G6" s="9">
         <v>5</v>
       </c>
-      <c r="H6" s="3">
-        <v>67.5</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,29 +649,19 @@
       <c r="E7" s="9">
         <v>6</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>19</v>
+      </c>
       <c r="G7" s="9">
         <v>6</v>
       </c>
-      <c r="H7" s="3">
-        <v>22.5</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="3">
-        <f>(3.5*M7)</f>
-        <v>24.5</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="O7">
-        <f>85*4</f>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -673,25 +674,19 @@
       <c r="E8" s="9">
         <v>7</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>11</v>
+      </c>
       <c r="G8" s="9">
         <v>7</v>
       </c>
-      <c r="H8" s="3">
-        <v>33</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3">
-        <f>M8*L7%</f>
-        <v>3993.2550000000001</v>
-      </c>
-      <c r="M8">
-        <v>16299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -704,25 +699,19 @@
       <c r="E9" s="9">
         <v>8</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>0.95</v>
+      </c>
       <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="H9" s="3">
-        <v>43.4</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="3">
-        <f>L8+M8</f>
-        <v>20292.255000000001</v>
-      </c>
-      <c r="M9">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -739,23 +728,13 @@
       <c r="G10" s="9">
         <v>9</v>
       </c>
-      <c r="H10" s="3">
-        <v>105.4</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
       <c r="L10" s="3"/>
-      <c r="M10">
-        <f>L9/M9</f>
-        <v>241.5744642857143</v>
-      </c>
-      <c r="O10">
-        <f>O7-M10</f>
-        <v>98.425535714285701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -772,15 +751,13 @@
       <c r="G11" s="9">
         <v>10</v>
       </c>
-      <c r="H11" s="3">
-        <v>14</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -797,15 +774,13 @@
       <c r="G12" s="9">
         <v>11</v>
       </c>
-      <c r="H12" s="3">
-        <v>3.9</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -822,14 +797,12 @@
       <c r="G13" s="9">
         <v>12</v>
       </c>
-      <c r="H13" s="3">
-        <v>5.5</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -846,14 +819,12 @@
       <c r="G14" s="9">
         <v>13</v>
       </c>
-      <c r="H14" s="3">
-        <v>5.8</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -870,14 +841,12 @@
       <c r="G15" s="9">
         <v>14</v>
       </c>
-      <c r="H15" s="3">
-        <v>14</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -894,9 +863,7 @@
       <c r="G16" s="9">
         <v>15</v>
       </c>
-      <c r="H16" s="3">
-        <v>12.5</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" s="3"/>
@@ -918,9 +885,7 @@
       <c r="G17" s="9">
         <v>16</v>
       </c>
-      <c r="H17" s="3">
-        <v>7.5</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" s="3"/>
@@ -942,9 +907,7 @@
       <c r="G18" s="9">
         <v>17</v>
       </c>
-      <c r="H18" s="3">
-        <v>779.09</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" s="3"/>
@@ -1000,7 +963,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="6">
         <f>SUM(D3:D20)</f>
-        <v>52.4</v>
+        <v>23</v>
       </c>
       <c r="E21" s="9">
         <v>20</v>
@@ -1018,7 +981,7 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="7">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="E22" s="9">
         <v>21</v>
@@ -1027,11 +990,14 @@
       <c r="G22" s="10"/>
       <c r="H22" s="4">
         <f>SUM(H2:H21)</f>
-        <v>1183.8900000000001</v>
+        <v>20.6</v>
+      </c>
+      <c r="I22">
+        <v>201.19</v>
       </c>
       <c r="J22" s="4">
         <f>I22-H22</f>
-        <v>-1183.8900000000001</v>
+        <v>180.59</v>
       </c>
       <c r="L22" s="3"/>
     </row>
@@ -1042,7 +1008,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="8">
         <f>D22-D21</f>
-        <v>212.6</v>
+        <v>-13</v>
       </c>
       <c r="E23" s="9">
         <v>22</v>
@@ -1107,7 +1073,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F32" s="4">
         <f>SUM(F2:F31)</f>
-        <v>0</v>
+        <v>66.650000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/VENTA DIARIAS.xlsx
+++ b/VENTA DIARIAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Peleteria Valamy\Cevallos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694B5A50-E040-4081-9EA8-3239E8494393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9617C5-F5C1-475D-B524-4188B9396C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{884F0C85-E8A2-45E5-AEE1-E08674D48F66}"/>
   </bookViews>
@@ -479,8 +479,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,13 +507,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>11.6</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="G2" s="9">
         <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>5.6</v>
+        <v>50.9</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -525,26 +525,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
-        <v>0.11</v>
+        <v>1.9</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D20" si="0">B3*C3</f>
-        <v>2.86</v>
+        <v>51.3</v>
       </c>
       <c r="E3" s="9">
         <v>2</v>
       </c>
       <c r="F3" s="3">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="G3" s="9">
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>15</v>
+        <v>552.33000000000004</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -555,20 +555,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>8.1000000000000014</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E4" s="9">
         <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="G4" s="9">
         <v>3</v>
@@ -583,20 +583,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
       <c r="E5" s="9">
         <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>5.5</v>
+        <v>16.8</v>
       </c>
       <c r="G5" s="9">
         <v>4</v>
@@ -612,20 +612,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="E6" s="9">
         <v>5</v>
       </c>
       <c r="F6" s="3">
-        <v>4.8</v>
+        <v>15.4</v>
       </c>
       <c r="G6" s="9">
         <v>5</v>
@@ -640,17 +640,21 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E7" s="9">
         <v>6</v>
       </c>
       <c r="F7" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G7" s="9">
         <v>6</v>
@@ -675,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G8" s="9">
         <v>7</v>
@@ -700,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>0.95</v>
+        <v>43.2</v>
       </c>
       <c r="G9" s="9">
         <v>8</v>
@@ -724,7 +728,9 @@
       <c r="E10" s="9">
         <v>9</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="G10" s="9">
         <v>9</v>
       </c>
@@ -747,7 +753,9 @@
       <c r="E11" s="9">
         <v>10</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>4.3</v>
+      </c>
       <c r="G11" s="9">
         <v>10</v>
       </c>
@@ -770,7 +778,9 @@
       <c r="E12" s="9">
         <v>11</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>10.8</v>
+      </c>
       <c r="G12" s="9">
         <v>11</v>
       </c>
@@ -793,7 +803,9 @@
       <c r="E13" s="9">
         <v>12</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="G13" s="9">
         <v>12</v>
       </c>
@@ -963,7 +975,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="6">
         <f>SUM(D3:D20)</f>
-        <v>23</v>
+        <v>86.299999999999983</v>
       </c>
       <c r="E21" s="9">
         <v>20</v>
@@ -990,14 +1002,14 @@
       <c r="G22" s="10"/>
       <c r="H22" s="4">
         <f>SUM(H2:H21)</f>
-        <v>20.6</v>
+        <v>603.23</v>
       </c>
       <c r="I22">
         <v>201.19</v>
       </c>
       <c r="J22" s="4">
         <f>I22-H22</f>
-        <v>180.59</v>
+        <v>-402.04</v>
       </c>
       <c r="L22" s="3"/>
     </row>
@@ -1008,7 +1020,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="8">
         <f>D22-D21</f>
-        <v>-13</v>
+        <v>-76.299999999999983</v>
       </c>
       <c r="E23" s="9">
         <v>22</v>
@@ -1073,7 +1085,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F32" s="4">
         <f>SUM(F2:F31)</f>
-        <v>66.650000000000006</v>
+        <v>262.8</v>
       </c>
     </row>
   </sheetData>

--- a/VENTA DIARIAS.xlsx
+++ b/VENTA DIARIAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Peleteria Valamy\Cevallos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9617C5-F5C1-475D-B524-4188B9396C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E94505-B614-4359-AEEB-0C92FA64BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{884F0C85-E8A2-45E5-AEE1-E08674D48F66}"/>
   </bookViews>
@@ -479,8 +479,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,14 +506,12 @@
       <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
-        <v>73.599999999999994</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="9">
         <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>50.9</v>
+        <v>31.2</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -525,26 +523,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D20" si="0">B3*C3</f>
-        <v>51.3</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="E3" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
-        <v>13.5</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="9">
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>552.33000000000004</v>
+        <v>31.2</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -555,25 +551,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>2.2000000000000002</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
-        <v>12</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="9">
         <v>3</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>10.4</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
@@ -582,26 +578,22 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.8</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="9">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
-        <v>16.8</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="9">
         <v>4</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>23.4</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
@@ -611,26 +603,22 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="9">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
-        <v>15.4</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="9">
         <v>5</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
@@ -640,26 +628,22 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9">
         <v>6</v>
       </c>
-      <c r="F7" s="3">
-        <v>27</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="9">
         <v>6</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>10.4</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
@@ -678,13 +662,13 @@
       <c r="E8" s="9">
         <v>7</v>
       </c>
-      <c r="F8" s="3">
-        <v>33</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="9">
         <v>7</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>23</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
@@ -703,13 +687,13 @@
       <c r="E9" s="9">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
-        <v>43.2</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>17</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
@@ -728,13 +712,13 @@
       <c r="E10" s="9">
         <v>9</v>
       </c>
-      <c r="F10" s="3">
-        <v>8.8000000000000007</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="9">
         <v>9</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
@@ -753,13 +737,13 @@
       <c r="E11" s="9">
         <v>10</v>
       </c>
-      <c r="F11" s="3">
-        <v>4.3</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="9">
         <v>10</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>1395.83</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -778,9 +762,7 @@
       <c r="E12" s="9">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
-        <v>10.8</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="9">
         <v>11</v>
       </c>
@@ -803,9 +785,7 @@
       <c r="E13" s="9">
         <v>12</v>
       </c>
-      <c r="F13" s="3">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="9">
         <v>12</v>
       </c>
@@ -975,7 +955,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="6">
         <f>SUM(D3:D20)</f>
-        <v>86.299999999999983</v>
+        <v>29.700000000000003</v>
       </c>
       <c r="E21" s="9">
         <v>20</v>
@@ -1002,14 +982,14 @@
       <c r="G22" s="10"/>
       <c r="H22" s="4">
         <f>SUM(H2:H21)</f>
-        <v>603.23</v>
+        <v>1556.23</v>
       </c>
       <c r="I22">
-        <v>201.19</v>
+        <v>19</v>
       </c>
       <c r="J22" s="4">
         <f>I22-H22</f>
-        <v>-402.04</v>
+        <v>-1537.23</v>
       </c>
       <c r="L22" s="3"/>
     </row>
@@ -1020,7 +1000,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="8">
         <f>D22-D21</f>
-        <v>-76.299999999999983</v>
+        <v>-19.700000000000003</v>
       </c>
       <c r="E23" s="9">
         <v>22</v>
@@ -1085,7 +1065,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F32" s="4">
         <f>SUM(F2:F31)</f>
-        <v>262.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
